--- a/26_analisi_conjoint_risolto.xlsx
+++ b/26_analisi_conjoint_risolto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsaccoi2201\Desktop\Google Drive\Documents\IULM\DMM\3.Exercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Code/DDM_2425/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{320663A9-5D36-4F43-A690-CD56BFF957F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C33B067-872E-4D47-B69C-4EB62EA9650F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -261,7 +261,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -392,7 +392,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -403,6 +403,24 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Package</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -533,7 +551,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -588,7 +606,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1487150944"/>
@@ -607,60 +625,14 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.74695217975801798"/>
-          <c:y val="0.41538676896157212"/>
-          <c:w val="0.22865885666730679"/>
-          <c:h val="0.10256464095834172"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="3175">
-      <a:solidFill>
-        <a:srgbClr val="000000"/>
-      </a:solidFill>
+      <a:noFill/>
       <a:prstDash val="solid"/>
     </a:ln>
   </c:spPr>
@@ -678,7 +650,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -693,7 +665,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -751,9 +723,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.10554103307046848"/>
-          <c:y val="0.33333534273330639"/>
+          <c:y val="0.17032606817564733"/>
           <c:w val="0.64643882755661941"/>
-          <c:h val="0.41358274005799128"/>
+          <c:h val="0.57659220497124375"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -873,7 +845,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -928,7 +900,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1487155520"/>
@@ -947,48 +919,6 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.78100374656334182"/>
-          <c:y val="0.48148407375004049"/>
-          <c:w val="0.19788945906827604"/>
-          <c:h val="0.12345743819059657"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="575" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1013,7 +943,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1027,7 +957,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1085,9 +1015,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11873366220427704"/>
-          <c:y val="0.31795031024794795"/>
+          <c:y val="0.16452550965375906"/>
           <c:w val="0.56728305275376811"/>
-          <c:h val="0.45128431131966806"/>
+          <c:h val="0.60470887714378163"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1206,7 +1136,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1256,7 +1186,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1487148032"/>
@@ -1275,48 +1205,6 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.74406415556894434"/>
-          <c:y val="0.49231038427888818"/>
-          <c:w val="0.21899763848780118"/>
-          <c:h val="0.11282105121475206"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="710" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1341,7 +1229,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1355,7 +1243,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1393,8 +1281,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38258630599934901"/>
-          <c:y val="4.6153846153846156E-2"/>
+          <c:x val="0.33167133344608779"/>
+          <c:y val="5.9553937667339338E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1413,9 +1301,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.13720334299160902"/>
-          <c:y val="0.31795031024794795"/>
+          <c:y val="0.21074770176341026"/>
           <c:w val="0.57783715606081498"/>
-          <c:h val="0.45128431131966806"/>
+          <c:h val="0.65898943536580545"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1529,7 +1417,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1584,7 +1472,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1487144704"/>
@@ -1603,50 +1491,6 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
-          <c:x val="0.74406415556894434"/>
-          <c:y val="0.49743858940709335"/>
-          <c:w val="0.96306179405674552"/>
-          <c:h val="0.61025964062184535"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="710" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1671,7 +1515,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1685,7 +1529,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1859,7 +1703,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1914,7 +1758,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1487151360"/>
@@ -1973,7 +1817,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2001,7 +1845,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2019,7 +1863,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -2054,16 +1898,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139701</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2092,16 +1936,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2130,16 +1974,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2645,29 +2489,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -2687,7 +2531,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2707,7 +2551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -2727,7 +2571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -2747,7 +2591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -2767,7 +2611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -2787,7 +2631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2807,7 +2651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2827,7 +2671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -2847,7 +2691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2867,7 +2711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2887,7 +2731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -2907,7 +2751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -2927,7 +2771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2947,7 +2791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -2967,7 +2811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -2987,7 +2831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -3007,7 +2851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3027,7 +2871,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -3047,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -3082,37 +2926,37 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
-        <f>IF(A2="A",1,0)</f>
+        <f t="shared" ref="A22:A39" si="0">IF(A2="A",1,0)</f>
         <v>1</v>
       </c>
       <c r="B22">
-        <f>IF(A2="B",1,0)</f>
+        <f t="shared" ref="B22:B39" si="1">IF(A2="B",1,0)</f>
         <v>0</v>
       </c>
       <c r="C22">
-        <f>IF(B2=1,1,0)</f>
+        <f t="shared" ref="C22:C39" si="2">IF(B2=1,1,0)</f>
         <v>1</v>
       </c>
       <c r="D22">
-        <f>IF(B2=2,1,0)</f>
+        <f t="shared" ref="D22:D39" si="3">IF(B2=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="E22">
-        <f>IF(C2=1.19,1,0)</f>
+        <f t="shared" ref="E22:E39" si="4">IF(C2=1.19,1,0)</f>
         <v>1</v>
       </c>
       <c r="F22">
-        <f>IF(C2=1.39,1,0)</f>
+        <f t="shared" ref="F22:F39" si="5">IF(C2=1.39,1,0)</f>
         <v>0</v>
       </c>
       <c r="G22">
-        <f>IF(D2="Yes",1,0)</f>
+        <f t="shared" ref="G22:G39" si="6">IF(D2="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="H22">
-        <f>IF(E2="Yes",1,0)</f>
+        <f t="shared" ref="H22:H39" si="7">IF(E2="Yes",1,0)</f>
         <v>0</v>
       </c>
       <c r="I22">
@@ -3127,748 +2971,748 @@
         <v>6.5000000000000044</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
-        <f>IF(A3="A",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B23">
-        <f>IF(A3="B",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C23">
-        <f>IF(B3=1,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D23">
-        <f>IF(B3=2,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E23">
-        <f>IF(C3=1.19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F23">
-        <f>IF(C3=1.39,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G23">
-        <f>IF(D3="Yes",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H23">
-        <f>IF(E3="Yes",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I23">
         <v>11</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23:J39" si="0">19-I23</f>
+        <f t="shared" ref="J23:J39" si="8">19-I23</f>
         <v>8</v>
       </c>
       <c r="K23">
         <v>7.6666666666666723</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
-        <f>IF(A4="A",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B24">
-        <f>IF(A4="B",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C24">
-        <f>IF(B4=1,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D24">
-        <f>IF(B4=2,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <f>IF(C4=1.19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F24">
-        <f>IF(C4=1.39,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G24">
-        <f>IF(D4="Yes",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H24">
-        <f>IF(E4="Yes",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I24">
         <v>17</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="K24">
         <v>1.8333333333333348</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
-        <f>IF(A5="A",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B25">
-        <f>IF(A5="B",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C25">
-        <f>IF(B5=1,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D25">
-        <f>IF(B5=2,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E25">
-        <f>IF(C5=1.19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F25">
-        <f>IF(C5=1.39,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G25">
-        <f>IF(D5="Yes",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H25">
-        <f>IF(E5="Yes",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="K25">
         <v>17.666666666666668</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
-        <f>IF(A6="A",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B26">
-        <f>IF(A6="B",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C26">
-        <f>IF(B6=1,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D26">
-        <f>IF(B6=2,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E26">
-        <f>IF(C6=1.19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F26">
-        <f>IF(C6=1.39,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G26">
-        <f>IF(D6="Yes",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H26">
-        <f>IF(E6="Yes",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I26">
         <v>14</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="K26">
         <v>6.3333333333333339</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
-        <f>IF(A7="A",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B27">
-        <f>IF(A7="B",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C27">
-        <f>IF(B7=1,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D27">
-        <f>IF(B7=2,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E27">
-        <f>IF(C7=1.19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F27">
-        <f>IF(C7=1.39,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f>IF(D7="Yes",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H27">
-        <f>IF(E7="Yes",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I27">
         <v>3</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="K27">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
-        <f>IF(A8="A",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B28">
-        <f>IF(A8="B",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C28">
-        <f>IF(B8=1,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D28">
-        <f>IF(B8=2,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E28">
-        <f>IF(C8=1.19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F28">
-        <f>IF(C8=1.39,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G28">
-        <f>IF(D8="Yes",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H28">
-        <f>IF(E8="Yes",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I28">
         <v>12</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="K28">
         <v>7.8333333333333357</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
-        <f>IF(A9="A",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B29">
-        <f>IF(A9="B",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C29">
-        <f>IF(B9=1,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D29">
-        <f>IF(B9=2,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E29">
-        <f>IF(C9=1.19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F29">
-        <f>IF(C9=1.39,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G29">
-        <f>IF(D9="Yes",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H29">
-        <f>IF(E9="Yes",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I29">
         <v>7</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="K29">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30">
-        <f>IF(A10="A",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B30">
-        <f>IF(A10="B",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C30">
-        <f>IF(B10=1,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D30">
-        <f>IF(B10=2,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E30">
-        <f>IF(C10=1.19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F30">
-        <f>IF(C10=1.39,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G30">
-        <f>IF(D10="Yes",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H30">
-        <f>IF(E10="Yes",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I30">
         <v>9</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="K30">
         <v>9.6666666666666679</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31">
-        <f>IF(A11="A",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B31">
-        <f>IF(A11="B",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C31">
-        <f>IF(B11=1,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D31">
-        <f>IF(B11=2,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E31">
-        <f>IF(C11=1.19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F31">
-        <f>IF(C11=1.39,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G31">
-        <f>IF(D11="Yes",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H31">
-        <f>IF(E11="Yes",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I31">
         <v>18</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K31">
         <v>0.33333333333333748</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
-        <f>IF(A12="A",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B32">
-        <f>IF(A12="B",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C32">
-        <f>IF(B12=1,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D32">
-        <f>IF(B12=2,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E32">
-        <f>IF(C12=1.19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F32">
-        <f>IF(C12=1.39,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G32">
-        <f>IF(D12="Yes",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H32">
-        <f>IF(E12="Yes",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I32">
         <v>8</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="K32">
         <v>10.500000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33">
-        <f>IF(A13="A",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B33">
-        <f>IF(A13="B",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C33">
-        <f>IF(B13=1,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D33">
-        <f>IF(B13=2,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f>IF(C13=1.19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F33">
-        <f>IF(C13=1.39,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G33">
-        <f>IF(D13="Yes",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H33">
-        <f>IF(E13="Yes",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I33">
         <v>15</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K33">
         <v>5.1666666666666705</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34">
-        <f>IF(A14="A",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B34">
-        <f>IF(A14="B",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C34">
-        <f>IF(B14=1,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D34">
-        <f>IF(B14=2,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E34">
-        <f>IF(C14=1.19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F34">
-        <f>IF(C14=1.39,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G34">
-        <f>IF(D14="Yes",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H34">
-        <f>IF(E14="Yes",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I34">
         <v>4</v>
       </c>
       <c r="J34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="K34">
         <v>14.5</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35">
-        <f>IF(A15="A",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B35">
-        <f>IF(A15="B",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C35">
-        <f>IF(B15=1,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D35">
-        <f>IF(B15=2,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E35">
-        <f>IF(C15=1.19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F35">
-        <f>IF(C15=1.39,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G35">
-        <f>IF(D15="Yes",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H35">
-        <f>IF(E15="Yes",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I35">
         <v>6</v>
       </c>
       <c r="J35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="K35">
         <v>12.666666666666668</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36">
-        <f>IF(A16="A",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B36">
-        <f>IF(A16="B",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C36">
-        <f>IF(B16=1,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D36">
-        <f>IF(B16=2,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f>IF(C16=1.19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F36">
-        <f>IF(C16=1.39,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G36">
-        <f>IF(D16="Yes",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H36">
-        <f>IF(E16="Yes",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I36">
         <v>5</v>
       </c>
       <c r="J36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="K36">
         <v>12.833333333333332</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37">
-        <f>IF(A17="A",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B37">
-        <f>IF(A17="B",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C37">
-        <f>IF(B17=1,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D37">
-        <f>IF(B17=2,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E37">
-        <f>IF(C17=1.19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F37">
-        <f>IF(C17=1.39,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G37">
-        <f>IF(D17="Yes",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H37">
-        <f>IF(E17="Yes",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I37">
         <v>10</v>
       </c>
       <c r="J37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="K37">
         <v>8.1666666666666696</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38">
-        <f>IF(A18="A",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B38">
-        <f>IF(A18="B",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C38">
-        <f>IF(B18=1,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D38">
-        <f>IF(B18=2,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E38">
-        <f>IF(C18=1.19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F38">
-        <f>IF(C18=1.39,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G38">
-        <f>IF(D18="Yes",1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H38">
-        <f>IF(E18="Yes",1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I38">
         <v>16</v>
       </c>
       <c r="J38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="K38">
         <v>2.8333333333333344</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39">
-        <f>IF(A19="A",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B39">
-        <f>IF(A19="B",1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C39">
-        <f>IF(B19=1,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D39">
-        <f>IF(B19=2,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E39">
-        <f>IF(C19=1.19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F39">
-        <f>IF(C19=1.39,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G39">
-        <f>IF(D19="Yes",1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H39">
-        <f>IF(E19="Yes",1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="K39">
@@ -3885,34 +3729,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S55" sqref="S55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3920,7 +3764,7 @@
         <v>0.9915362498905026</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3928,7 +3772,7 @@
         <v>0.9831441348469212</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3936,7 +3780,7 @@
         <v>0.96816114359973993</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3944,7 +3788,7 @@
         <v>0.95257934441568026</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3952,12 +3796,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -3974,7 +3818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3994,7 +3838,7 @@
         <v>4.4924284117267275E-7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -4008,7 +3852,7 @@
         <v>0.90740740740740733</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4019,7 +3863,7 @@
         <v>484.5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -4045,7 +3889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -4074,7 +3918,7 @@
         <v>6.26992388628471</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -4103,7 +3947,7 @@
         <v>-3.2558760863073735</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -4132,7 +3976,7 @@
         <v>4.7441239136926265</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -4161,7 +4005,7 @@
         <v>-0.25587608630737368</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -4190,7 +4034,7 @@
         <v>-0.75587608630737368</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -4219,7 +4063,7 @@
         <v>8.9107905803592917</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -4248,7 +4092,7 @@
         <v>6.0774572470259596</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -4277,7 +4121,7 @@
         <v>2.5774429147135329</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -4306,17 +4150,17 @@
         <v>5.5774429147135329</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -4328,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -4340,7 +4184,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -4352,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -4364,7 +4208,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -4376,7 +4220,7 @@
         <v>4.9999999999999989E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -4388,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1.19</v>
       </c>
@@ -4400,7 +4244,7 @@
         <v>0.95837499999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>1.39</v>
       </c>
@@ -4412,7 +4256,7 @@
         <v>0.60375000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>1.59</v>
       </c>
@@ -4424,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4436,7 +4280,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -4448,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -4460,7 +4304,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>42</v>
       </c>
